--- a/Pb_policy_iteration/cart_pole_modified_env/modified_algo_analysis/mod_vs_original_algo_experiments/experiments/eval_results/modified_experiment_results_para_config_2.xlsx
+++ b/Pb_policy_iteration/cart_pole_modified_env/modified_algo_analysis/mod_vs_original_algo_experiments/experiments/eval_results/modified_experiment_results_para_config_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="182">
   <si>
     <t>S</t>
   </si>
@@ -37,388 +37,529 @@
     <t>SR</t>
   </si>
   <si>
-    <t>[7919, 21317, 33830, 46625, 58939, 70928, 83516, 95976, 109006, 121654]</t>
-  </si>
-  <si>
-    <t>[7959, 21099, 34236, 47156, 59977, 72829, 85289, 98051, 111527, 124787]</t>
-  </si>
-  <si>
-    <t>[7778, 19485, 30788, 42054, 53144, 64782, 76434, 88267, 100116, 111551]</t>
-  </si>
-  <si>
-    <t>[7787, 21295, 34190, 48200, 61855, 74216, 87660, 100174, 113052, 126094]</t>
-  </si>
-  <si>
-    <t>[7834, 20856, 32677, 44607, 56745, 69190, 82362, 95204, 107784, 120739]</t>
-  </si>
-  <si>
-    <t>[7846, 19837, 33383, 45226, 57145, 68726, 80344, 92120, 103999, 115693]</t>
-  </si>
-  <si>
-    <t>[7854, 20873, 35091, 46989, 59469, 72338, 84735, 97953, 111332, 124300]</t>
-  </si>
-  <si>
-    <t>[7754, 19856, 33271, 45526, 57787, 70123, 82371, 94378, 106554, 118695]</t>
-  </si>
-  <si>
-    <t>[7734, 21122, 34623, 46404, 57324, 69272, 80662, 92085, 103587, 115780]</t>
-  </si>
-  <si>
-    <t>[7781, 20092, 32699, 44861, 57842, 70344, 83388, 96287, 109097, 121644]</t>
-  </si>
-  <si>
-    <t>[7792, 19932, 31683, 43471, 56790, 70268, 82809, 95360, 107826, 120076]</t>
-  </si>
-  <si>
-    <t>[7827, 22215, 36581, 50960, 64915, 78978, 92680, 106809, 120175, 133798]</t>
-  </si>
-  <si>
-    <t>[7763, 20777, 32323, 43842, 56635, 69537, 82648, 94605, 107860, 120935]</t>
-  </si>
-  <si>
-    <t>[7801, 20362, 32430, 45884, 58836, 71574, 84519, 97231, 110245, 123315]</t>
-  </si>
-  <si>
-    <t>[7793, 20782, 33569, 47241, 59659, 72958, 85191, 97019, 108606, 120712]</t>
-  </si>
-  <si>
-    <t>[7854, 21302, 32901, 44672, 58322, 70621, 83091]</t>
-  </si>
-  <si>
-    <t>[7839, 20740, 33262, 45115, 57581, 69736, 81812, 94183, 106511, 118605]</t>
-  </si>
-  <si>
-    <t>[7937, 21225, 33960, 46742, 59167, 72045, 84986, 97109, 109534, 122211]</t>
-  </si>
-  <si>
-    <t>[7831, 19927, 31891, 43727, 54997, 66210, 77529, 89521, 101828, 113916]</t>
-  </si>
-  <si>
-    <t>[7829, 21108, 35278, 48921, 62552, 75759, 88763, 101519, 114109, 126808]</t>
-  </si>
-  <si>
-    <t>[7870, 20240, 31911, 43631, 55742, 67755, 79771, 91745, 103799, 115940]</t>
-  </si>
-  <si>
-    <t>[7779, 20665, 32487, 46163, 58618, 71928, 83721, 97175, 110103, 123179]</t>
-  </si>
-  <si>
-    <t>[7774, 22098, 36145, 49742, 63950, 76914, 90352, 103761, 117987, 131830]</t>
-  </si>
-  <si>
-    <t>[7805, 21168, 33411, 46642, 59640, 72584, 84455, 97486, 109835, 122786]</t>
-  </si>
-  <si>
-    <t>[7712, 19454, 31474, 44037, 56671, 69699, 82452, 95379, 108670, 121524]</t>
-  </si>
-  <si>
-    <t>[7769, 20010, 31917, 44210, 56590, 68914, 81170, 93897, 107154, 119788]</t>
-  </si>
-  <si>
-    <t>[7910, 20198, 31920, 44196, 56636, 68271, 79531, 91602, 104005, 116200]</t>
-  </si>
-  <si>
-    <t>[7848, 20629, 34047, 47488, 60343, 72699, 85586, 98428, 111780, 124670]</t>
-  </si>
-  <si>
-    <t>[7700, 19846, 31553, 43668, 55896, 68346, 80969, 93826, 106438, 119043]</t>
-  </si>
-  <si>
-    <t>[7914, 21107, 34926, 49423, 63010, 76576, 90156, 103561, 117587, 131130]</t>
-  </si>
-  <si>
-    <t>[15501, 42341, 67632, 90711, 113640, 137319, 159978, 182932, 205357, 228428]</t>
-  </si>
-  <si>
-    <t>[15610, 39547, 63697, 87539, 112069, 136304, 161190, 186020, 210538, 235541]</t>
-  </si>
-  <si>
-    <t>[15744, 43650, 72004, 100789, 127272, 153708, 180321, 207200, 234043, 260335]</t>
-  </si>
-  <si>
-    <t>[15671, 40420, 65085, 88743, 113489, 137802, 162670, 187240, 210979, 236013]</t>
-  </si>
-  <si>
-    <t>[15620, 40280, 66799, 93161, 118424, 144708, 170040, 195602, 221134, 246376]</t>
-  </si>
-  <si>
-    <t>[15650, 40842, 66439, 91668, 116983, 142113, 167126, 192292, 217553, 242679]</t>
-  </si>
-  <si>
-    <t>[15665, 43405, 71362, 98174, 124952]</t>
-  </si>
-  <si>
-    <t>[15662, 40505, 63984, 87331, 110057, 133406, 156644, 180485, 204192, 228453]</t>
-  </si>
-  <si>
-    <t>[15659, 39972, 63660, 87956, 111574, 135194, 159039, 182195, 206501, 230339]</t>
-  </si>
-  <si>
-    <t>[15632, 40754, 66692, 91689, 115917, 141596, 165793, 190404, 215202, 239343]</t>
-  </si>
-  <si>
-    <t>[15738, 42538, 67793, 91505, 116369, 141537, 167562, 193692, 220468, 246841]</t>
-  </si>
-  <si>
-    <t>[15535, 42308, 66851, 93437, 117921, 143190, 169129, 193816, 219235, 244118]</t>
-  </si>
-  <si>
-    <t>[15690, 40748, 65711, 90637, 114349, 137258, 161731, 187398, 211414, 236710]</t>
-  </si>
-  <si>
-    <t>[15610, 39153, 61140, 83488, 106079, 129274, 151877, 175015, 199184, 222986]</t>
-  </si>
-  <si>
-    <t>[15517, 39881, 63637, 87192, 111425, 135801, 160449, 184949, 209259, 233644]</t>
-  </si>
-  <si>
-    <t>[15794, 40868, 65364, 90295, 115120, 138884, 162356, 186827, 212358, 237817]</t>
-  </si>
-  <si>
-    <t>[15673, 41540, 67248, 90770, 115520, 138674, 164739, 189825, 215475, 240420]</t>
-  </si>
-  <si>
-    <t>[15669, 42705, 69274, 95938, 121738, 148687, 175835, 202624, 229697, 257205]</t>
-  </si>
-  <si>
-    <t>[15622, 41802, 68533, 93191, 119376, 146340, 172104, 198598, 224412, 249766]</t>
-  </si>
-  <si>
-    <t>[15655, 42517, 69887, 95623, 121982, 146881, 172109, 197056, 222109, 247667]</t>
-  </si>
-  <si>
-    <t>[15683, 42193, 69531, 97487, 124991, 150318, 176620, 203515, 230215, 255523]</t>
-  </si>
-  <si>
-    <t>[15710, 40607, 67875, 94274, 119514, 142976, 168574, 194336, 219425, 244821]</t>
-  </si>
-  <si>
-    <t>[15628, 43986, 71831, 100194, 129503, 158961, 187643, 216050, 244560, 273062]</t>
-  </si>
-  <si>
-    <t>[15443, 40649, 66653, 92639, 118828, 144235, 169623, 194870, 220053, 244698]</t>
-  </si>
-  <si>
-    <t>[15567, 41469, 65802, 90814, 115339, 141538, 166917, 192417, 218117, 243602]</t>
-  </si>
-  <si>
-    <t>[15581, 42332, 68840, 92689, 118362, 145063, 173740, 199782, 223063, 248863]</t>
-  </si>
-  <si>
-    <t>[15666, 40165, 65395, 90685, 116023, 140854, 165406, 190753, 215483, 241090]</t>
-  </si>
-  <si>
-    <t>[15699, 40996, 65622, 90827, 115361, 141481, 167513, 193551, 220127, 246740]</t>
-  </si>
-  <si>
-    <t>[15580, 42223, 68022, 94998, 120079, 145050, 171428, 197377, 223035, 249872]</t>
-  </si>
-  <si>
-    <t>[15609, 42822, 67742, 95220, 119421, 146615, 172875, 199071, 226307, 253588]</t>
-  </si>
-  <si>
-    <t>[39116, 105399, 170369, 238460, 306337, 375164, 443776, 512040, 581096, 647856]</t>
-  </si>
-  <si>
-    <t>[38979, 101584, 165194, 227002, 288732, 348040, 407692, 465398, 525844, 585408]</t>
-  </si>
-  <si>
-    <t>[39042, 103187, 168043, 232526, 297132, 361725, 427292, 493202, 556255, 620354]</t>
-  </si>
-  <si>
-    <t>[39122, 104632, 168432, 233937, 297504, 362171, 426250, 491630]</t>
-  </si>
-  <si>
-    <t>[38872, 104524, 172191, 238094, 305249, 370798, 436416, 502559, 567980, 633187]</t>
-  </si>
-  <si>
-    <t>[39139, 101122, 161697, 220911, 281836, 341619, 404097, 464069, 528795, 590949]</t>
-  </si>
-  <si>
-    <t>[39146, 107318, 174056, 239496, 305719, 372217, 438476, 504817, 570306, 635584]</t>
-  </si>
-  <si>
-    <t>[38977, 102898, 165288, 227745, 290838, 354529, 419523, 483863, 548459, 613428]</t>
-  </si>
-  <si>
-    <t>[39073, 101466, 164355, 226301, 289899, 349626, 411443, 472300, 534578, 596843]</t>
-  </si>
-  <si>
-    <t>[39282, 107112, 173159, 239440, 306325, 373667, 440368, 507681, 573834, 640728]</t>
-  </si>
-  <si>
-    <t>[39011, 99818, 161035, 222037, 282882, 344873, 406272, 468602, 531893, 595334]</t>
-  </si>
-  <si>
-    <t>[39236, 102645, 167517, 229931, 292358, 354099, 419441, 485538, 549712, 614623]</t>
-  </si>
-  <si>
-    <t>[38906, 99680, 162820, 227288, 291259, 353729, 415985, 479125, 541861, 606203]</t>
-  </si>
-  <si>
-    <t>[39168, 105070, 170222, 233968, 300184, 362620, 430157, 495240, 560093, 625021]</t>
-  </si>
-  <si>
-    <t>[39302, 103564, 167142, 231956, 299043, 365560, 431130, 498279, 567194, 633868]</t>
-  </si>
-  <si>
-    <t>[39346, 100831, 162318, 223360, 283701, 343903, 407071, 468795, 530380, 591643]</t>
-  </si>
-  <si>
-    <t>[39285, 103303, 165633, 228424, 291122, 354705, 418791, 481908, 544960, 608409]</t>
-  </si>
-  <si>
-    <t>[38787, 105208, 171230, 237115, 302828, 368639, 434369, 500510, 567545, 634103]</t>
-  </si>
-  <si>
-    <t>[39201, 98513, 160778, 223567, 286773, 348894, 411094, 472927, 535504, 597630]</t>
-  </si>
-  <si>
-    <t>[39030, 101350, 166777, 228468, 293707, 356759, 421972, 485615, 550358, 614054]</t>
-  </si>
-  <si>
-    <t>[39232, 104449, 167116, 230363, 293035, 357525, 420993, 485807, 549657, 613982]</t>
-  </si>
-  <si>
-    <t>[38713, 102120, 165468, 230084, 294253, 359610, 424747, 490872, 557243, 622594]</t>
-  </si>
-  <si>
-    <t>[39235, 98224, 158057, 217465, 278612, 336681, 396806, 456953, 518535, 578690]</t>
-  </si>
-  <si>
-    <t>[38818, 102484, 165364, 228955, 292931, 357695, 421546, 485814, 550563, 614545]</t>
-  </si>
-  <si>
-    <t>[39185, 101356, 163794, 228418, 292240, 354852, 418121, 481799, 544873, 608474]</t>
-  </si>
-  <si>
-    <t>[39119, 101588, 164157, 226187, 289239, 351067, 414169, 475672, 538381, 600157]</t>
-  </si>
-  <si>
-    <t>[39087, 102581, 165764, 230254, 293132, 358322, 421050, 486047, 549234, 614631]</t>
-  </si>
-  <si>
-    <t>[38810, 106658, 172461, 240981, 307602, 371695, 437862, 504903, 571169, 637396]</t>
-  </si>
-  <si>
-    <t>[39159, 102409, 167450, 232239, 295728, 360309, 426307, 490393, 556713, 623698]</t>
-  </si>
-  <si>
-    <t>[38920, 106212, 171781, 241050, 309431, 378930, 447384, 515211, 584403, 653408]</t>
-  </si>
-  <si>
-    <t>[78224, 210659, 342517, 475744, 608673, 743737, 876883, 1012161]</t>
-  </si>
-  <si>
-    <t>[78099, 208234, 338132, 465228, 596122, 726781, 855908, 987004, 1115253, 1244434]</t>
-  </si>
-  <si>
-    <t>[78105, 211064, 344953, 477875, 613794, 747011, 879360, 1012713, 1145041, 1277501]</t>
-  </si>
-  <si>
-    <t>[77902, 204520, 331941, 456369, 583968, 712470, 840186, 969422, 1098136, 1226680]</t>
-  </si>
-  <si>
-    <t>[77747, 200464, 323453, 447001, 570560, 695128, 820915, 947577, 1073017, 1198163]</t>
-  </si>
-  <si>
-    <t>[78098, 205223, 333893, 464707, 595974, 727432, 857136, 985974, 1118508, 1249080]</t>
-  </si>
-  <si>
-    <t>[78185, 207239, 336752, 467989, 598316, 728519, 859219, 988759, 1118926, 1249412]</t>
-  </si>
-  <si>
-    <t>[78379, 207360, 337452, 469642, 599653, 730390, 861252, 992142, 1125439, 1259958]</t>
-  </si>
-  <si>
-    <t>[78011, 208992, 338700, 467942, 600218, 730420, 861663, 990861, 1121365, 1250535]</t>
-  </si>
-  <si>
-    <t>[78095, 202482, 328979, 456972, 587882, 715951, 844543, 971344, 1101836, 1232568]</t>
-  </si>
-  <si>
-    <t>[78099, 202964, 326710, 452958, 580203, 704777, 830647, 957213, 1083275, 1209182]</t>
-  </si>
-  <si>
-    <t>[78177, 202203, 326724, 452209, 578641, 706183, 831166, 959406, 1084348, 1211941]</t>
-  </si>
-  <si>
-    <t>[78192, 199028, 324230, 449977, 575956, 701485, 827484, 953758, 1078945, 1205250]</t>
-  </si>
-  <si>
-    <t>[78587, 201958, 327020, 455913, 582914, 712967, 840758, 971102, 1098911, 1227535]</t>
-  </si>
-  <si>
-    <t>[78037, 205134, 336498, 466772, 597571, 727435, 858858, 988842, 1118730, 1249271]</t>
-  </si>
-  <si>
-    <t>[78112, 206474, 336104, 466262, 597488, 726247, 856403, 987152, 1118935, 1249364]</t>
-  </si>
-  <si>
-    <t>[78414, 199401, 322240, 445702, 564855, 685548, 808005, 932800, 1056637, 1180573]</t>
-  </si>
-  <si>
-    <t>[77670, 203010, 329154, 455648, 584694, 711727, 841387, 970541, 1099962, 1229387]</t>
-  </si>
-  <si>
-    <t>[77854, 208061, 342260, 470990, 600748, 730386, 858805, 988305, 1116899, 1246537]</t>
-  </si>
-  <si>
-    <t>[77887, 207415, 336739, 466055, 597499, 729398, 860107, 990368, 1123086, 1255344]</t>
-  </si>
-  <si>
-    <t>[78350, 209435, 339817, 469408, 597145, 724014, 855000, 985285, 1115613, 1246120]</t>
-  </si>
-  <si>
-    <t>[78173, 207379, 337133, 470443, 605584, 740582, 873938, 1007754, 1137386, 1268860]</t>
-  </si>
-  <si>
-    <t>[78322, 204179, 329116, 456728, 584339, 711663, 838815, 967772, 1094994, 1222210]</t>
-  </si>
-  <si>
-    <t>[77940, 199765, 323700, 448198, 573548, 699796, 824480, 949032, 1076006, 1202784]</t>
-  </si>
-  <si>
-    <t>[78118, 201318, 328841, 454996, 581760, 708931, 834758, 963997, 1093974, 1225022]</t>
-  </si>
-  <si>
-    <t>[78194, 208512, 337020, 468334, 600553, 732587, 864349, 996725, 1128326, 1260002]</t>
-  </si>
-  <si>
-    <t>[78009, 204945, 333796, 462543, 591204, 721617, 849298, 978561, 1107382, 1236489]</t>
-  </si>
-  <si>
-    <t>[77684, 209606, 340151, 472357, 604578, 737544, 869929, 1003044, 1135924, 1270813]</t>
-  </si>
-  <si>
-    <t>[78184, 200901, 323916, 450175, 578545, 704604, 834093, 961492, 1091077, 1217820]</t>
-  </si>
-  <si>
-    <t>[78347, 211437, 348458, 482349, 616671, 750123]</t>
+    <t>[7645, 20890, 32977, 45380, 59041, 71814, 85045, 98246, 111718, 125389]</t>
+  </si>
+  <si>
+    <t>[7546, 22034, 36801, 50414, 64482, 78174, 91738, 105257, 118720, 132803]</t>
+  </si>
+  <si>
+    <t>[7684, 21474, 34978]</t>
+  </si>
+  <si>
+    <t>[7604, 20855]</t>
+  </si>
+  <si>
+    <t>[7684, 21023, 33567, 47189]</t>
+  </si>
+  <si>
+    <t>[7578, 21486, 33405, 46484, 60012, 74477, 87864, 102325, 116689, 130732]</t>
+  </si>
+  <si>
+    <t>[7606, 20929, 33418, 46910, 60540, 73836, 86706, 99209, 112659, 125991]</t>
+  </si>
+  <si>
+    <t>[7697, 19621, 32305, 44396, 56222, 69120, 81945, 95281, 109277, 122842]</t>
+  </si>
+  <si>
+    <t>[7609, 21305, 34815, 47202, 61064, 74478, 87924, 100487, 113687, 126996]</t>
+  </si>
+  <si>
+    <t>[7726, 20842, 33333, 45344, 58642, 72042, 85386, 98856, 112360, 124975]</t>
+  </si>
+  <si>
+    <t>[7494, 20835, 34763, 48641, 62811, 76103, 88430]</t>
+  </si>
+  <si>
+    <t>[7555, 21262, 35157, 46528, 60102, 73509, 87191, 100444]</t>
+  </si>
+  <si>
+    <t>[7616, 20287, 33258, 47158, 59357, 72007, 85042, 97414, 111183, 124870]</t>
+  </si>
+  <si>
+    <t>[7541, 20218, 32436, 44329, 57689, 71821, 83930, 98022, 111019, 124028]</t>
+  </si>
+  <si>
+    <t>[7659, 21103, 35167, 49038, 60734, 74558]</t>
+  </si>
+  <si>
+    <t>[7525, 22611, 35584]</t>
+  </si>
+  <si>
+    <t>[7512, 22697, 36210, 48883, 63672, 77734, 91316]</t>
+  </si>
+  <si>
+    <t>[7595, 21679, 33901, 47690, 60020, 73559, 85921, 99541, 112142, 125273]</t>
+  </si>
+  <si>
+    <t>[7760, 20278, 33409, 47077, 61424, 74857, 88415, 102270, 116259, 129938]</t>
+  </si>
+  <si>
+    <t>[7741, 20730, 33369, 46000, 58628, 71215, 83868, 96641, 109723, 122464]</t>
+  </si>
+  <si>
+    <t>[7649, 20676, 33558, 46196, 58543, 71517, 84464, 97050, 109891, 122976]</t>
+  </si>
+  <si>
+    <t>[7645, 20895, 34084, 47493]</t>
+  </si>
+  <si>
+    <t>[7620, 22309, 35516, 47983, 61738, 75044, 88807, 102701, 116746, 131181]</t>
+  </si>
+  <si>
+    <t>[7680, 22493, 35004, 47132, 58172, 71860, 83715, 96005, 109630, 123789]</t>
+  </si>
+  <si>
+    <t>[7560, 20442, 33793, 46653, 59849, 73002, 85793, 98572]</t>
+  </si>
+  <si>
+    <t>[7563, 20122, 32540, 44384]</t>
+  </si>
+  <si>
+    <t>[7602, 22211, 35562, 50201, 63545, 78466, 90249, 104740, 119956, 134966]</t>
+  </si>
+  <si>
+    <t>[7588, 20917, 32656, 45140, 58354, 71731, 85059, 98407, 111446, 124666]</t>
+  </si>
+  <si>
+    <t>[7610, 20617, 34598, 46580, 60080, 72948]</t>
+  </si>
+  <si>
+    <t>[7671, 21042]</t>
+  </si>
+  <si>
+    <t>[15240, 41749, 67699, 93646, 119362, 144977, 171294, 196948, 223418, 250014]</t>
+  </si>
+  <si>
+    <t>[15239, 42851, 70939, 99842, 127953, 154819, 182111, 209954, 239188, 267766]</t>
+  </si>
+  <si>
+    <t>[15099, 42282, 69634, 96157]</t>
+  </si>
+  <si>
+    <t>[15154, 42281, 71636, 100962, 130361, 158726, 186645, 213501, 240526]</t>
+  </si>
+  <si>
+    <t>[15392, 40350, 67925, 95190, 119450, 146817, 173854, 201648, 228666, 255909]</t>
+  </si>
+  <si>
+    <t>[15177, 41078, 67167, 92771, 119766, 144948, 171809, 196878, 223790, 251499]</t>
+  </si>
+  <si>
+    <t>[15204, 43000, 71109, 99380, 128734, 157017]</t>
+  </si>
+  <si>
+    <t>[15222, 43049, 69968, 97648, 124332, 151913, 178708]</t>
+  </si>
+  <si>
+    <t>[15331, 41634, 68152, 94682, 120373, 145253, 171066, 196692, 222753, 247878]</t>
+  </si>
+  <si>
+    <t>[15262, 40882, 67621, 94788, 122213, 148743, 176187, 202370, 230366, 258177]</t>
+  </si>
+  <si>
+    <t>[15127, 40245]</t>
+  </si>
+  <si>
+    <t>[15285, 41307, 65437, 91518, 116218]</t>
+  </si>
+  <si>
+    <t>[15119, 43740, 71488, 98985, 126380]</t>
+  </si>
+  <si>
+    <t>[15279, 43275, 70737]</t>
+  </si>
+  <si>
+    <t>[15202, 39370, 62799, 89105, 115113, 140023, 166960, 191470, 218206, 244075]</t>
+  </si>
+  <si>
+    <t>[15314, 41059, 66464, 91351, 117080, 142298, 168580, 195323, 220737, 247293]</t>
+  </si>
+  <si>
+    <t>[15242, 41324, 65309, 91360, 116532, 142754, 167248, 192643, 218291, 244106]</t>
+  </si>
+  <si>
+    <t>[15140, 41022, 67867, 95916, 122485, 149001, 174785]</t>
+  </si>
+  <si>
+    <t>[15427, 41229, 66552]</t>
+  </si>
+  <si>
+    <t>[15420, 40198, 66205, 90623, 117716, 143022, 169020, 193796, 219856, 245454]</t>
+  </si>
+  <si>
+    <t>[15260, 42486, 70026, 97663, 124125, 153187, 178564, 208822]</t>
+  </si>
+  <si>
+    <t>[15208, 43311, 68053, 92937]</t>
+  </si>
+  <si>
+    <t>[15371, 41538, 70063]</t>
+  </si>
+  <si>
+    <t>[15296, 44260, 72971, 99567, 125818, 152560, 179477, 206020, 232956, 258367]</t>
+  </si>
+  <si>
+    <t>[15356, 40631, 64516, 91009, 118695, 145851, 172805, 200239, 225402, 251894]</t>
+  </si>
+  <si>
+    <t>[15087, 42274, 69029, 91814, 118863, 144235]</t>
+  </si>
+  <si>
+    <t>[15119, 40657, 66554, 93098, 117498, 144021, 170242, 196753, 221902, 249426]</t>
+  </si>
+  <si>
+    <t>[15272, 41789, 68783, 94488, 120903, 147321, 174723, 200952]</t>
+  </si>
+  <si>
+    <t>[15255, 40986, 66681, 91100, 115101, 141373, 166817, 192483, 217717]</t>
+  </si>
+  <si>
+    <t>[15195, 43137, 70692, 99162, 125769, 151704, 180115, 207912, 235485, 263561]</t>
+  </si>
+  <si>
+    <t>[38242, 105800, 177921, 246664, 314815]</t>
+  </si>
+  <si>
+    <t>[38122, 106973, 178083]</t>
+  </si>
+  <si>
+    <t>[38247, 105108, 174072, 241042, 308807, 376485, 445606, 513376, 580684]</t>
+  </si>
+  <si>
+    <t>[38073, 107424, 172666, 238549, 306704, 372698, 439763, 505021, 573110]</t>
+  </si>
+  <si>
+    <t>[38090, 105698, 176366, 244590, 310975, 377662, 444314, 511253, 579578, 649361]</t>
+  </si>
+  <si>
+    <t>[38169, 103302]</t>
+  </si>
+  <si>
+    <t>[38219, 102482, 164219, 231483, 294915, 362677, 426034]</t>
+  </si>
+  <si>
+    <t>[37945, 107585, 177650, 251010, 322610, 391810, 463094, 533085, 601498, 669961]</t>
+  </si>
+  <si>
+    <t>[38132, 107483, 177839, 248244, 318379, 384141, 453153]</t>
+  </si>
+  <si>
+    <t>[38180, 104949]</t>
+  </si>
+  <si>
+    <t>[38193, 105737, 173475, 239052, 305714, 373775, 445582, 517587, 587905]</t>
+  </si>
+  <si>
+    <t>[37965, 105828, 171344, 235341]</t>
+  </si>
+  <si>
+    <t>[38135, 106034, 175925, 243369, 311184, 381044, 450654, 516294, 587284, 658433]</t>
+  </si>
+  <si>
+    <t>[38368, 106870, 172010, 241162, 310261, 382739, 453676, 524566, 593623, 662278]</t>
+  </si>
+  <si>
+    <t>[38085, 105175, 168756]</t>
+  </si>
+  <si>
+    <t>[38245, 100369, 169897, 232883, 300561, 363905, 429000, 495010, 557825, 623612]</t>
+  </si>
+  <si>
+    <t>[38204, 107258, 175562, 240356]</t>
+  </si>
+  <si>
+    <t>[38130, 100808, 165305, 230178, 292936, 360274]</t>
+  </si>
+  <si>
+    <t>[38180, 108250, 182420, 250064, 322050, 395603, 467903, 538953, 610703, 684054]</t>
+  </si>
+  <si>
+    <t>[37857, 106687, 170498, 238610]</t>
+  </si>
+  <si>
+    <t>[38406, 102064, 170557, 235157, 295896, 361045, 426596, 491307]</t>
+  </si>
+  <si>
+    <t>[37846, 105182, 169922, 237722, 300534, 369718, 431407]</t>
+  </si>
+  <si>
+    <t>[38076, 105838]</t>
+  </si>
+  <si>
+    <t>[37857, 110155, 178802, 247867, 315959]</t>
+  </si>
+  <si>
+    <t>[38134, 100391, 168496, 227841]</t>
+  </si>
+  <si>
+    <t>[37910, 108418, 171854, 235656]</t>
+  </si>
+  <si>
+    <t>[37950, 103637]</t>
+  </si>
+  <si>
+    <t>[38075, 105839, 169807, 233768, 296377, 361823, 423573, 491954, 556906, 623160]</t>
+  </si>
+  <si>
+    <t>[38096, 106112, 174405, 240471, 306471, 369793]</t>
+  </si>
+  <si>
+    <t>[38234, 105329]</t>
+  </si>
+  <si>
+    <t>[76116, 208137, 338645]</t>
+  </si>
+  <si>
+    <t>[76423, 211882]</t>
+  </si>
+  <si>
+    <t>[76447, 214740, 345195]</t>
+  </si>
+  <si>
+    <t>[76188, 213151, 353981, 499875, 642141, 784050, 932109, 1076785]</t>
+  </si>
+  <si>
+    <t>[76102, 211876, 343849, 478746, 620099, 757710, 897219, 1033166, 1172590, 1310573]</t>
+  </si>
+  <si>
+    <t>[76160, 207771, 347939, 485652, 624404, 765295, 902593, 1041705, 1179894, 1318136]</t>
+  </si>
+  <si>
+    <t>[75818, 211292, 349814, 492046, 634752]</t>
+  </si>
+  <si>
+    <t>[76246, 216721, 356112, 494687, 637356, 779910, 923796, 1068252, 1211118, 1354001]</t>
+  </si>
+  <si>
+    <t>[76225, 209229, 344348, 476706, 615273, 752092, 888775, 1024906, 1160437, 1301484]</t>
+  </si>
+  <si>
+    <t>[76189, 210741, 346284, 483018, 618596, 754333, 893214, 1034238, 1174326, 1313594]</t>
+  </si>
+  <si>
+    <t>[76110, 211406, 352586, 492703, 634208, 775409, 918583, 1062446, 1203761, 1346139]</t>
+  </si>
+  <si>
+    <t>[76355, 213816, 351603, 492969, 635039, 782426, 930879, 1075649, 1205683]</t>
+  </si>
+  <si>
+    <t>[76120, 215819, 339596, 473687, 601732, 734907, 864803, 999937, 1130732, 1257884]</t>
+  </si>
+  <si>
+    <t>[75968, 208246, 349411, 488839, 625545]</t>
+  </si>
+  <si>
+    <t>[76464, 206933, 337323, 473242]</t>
+  </si>
+  <si>
+    <t>[75949, 211782, 353718, 498774]</t>
+  </si>
+  <si>
+    <t>[76144, 206598]</t>
+  </si>
+  <si>
+    <t>[76231, 216877, 356421, 496792, 638474]</t>
+  </si>
+  <si>
+    <t>[75869, 213221, 360405, 496917]</t>
+  </si>
+  <si>
+    <t>[76721, 216420, 351378, 492104, 627514, 771536, 909283, 1051106]</t>
+  </si>
+  <si>
+    <t>[76044, 208544, 350099, 480851]</t>
+  </si>
+  <si>
+    <t>[76203, 211698, 350150, 478452, 608361, 749068]</t>
+  </si>
+  <si>
+    <t>[76190, 215939, 348133, 485388, 621836, 759016, 893244, 1032659, 1173122, 1309059]</t>
+  </si>
+  <si>
+    <t>[76073, 208058, 331265, 468006, 611587, 753916, 893809, 1032073, 1165309, 1302714]</t>
+  </si>
+  <si>
+    <t>[76354, 208338, 352144, 484148, 617380, 756005]</t>
+  </si>
+  <si>
+    <t>[76426, 210618, 343455, 477092, 619007, 751981, 886798, 1019350, 1155092, 1289055]</t>
+  </si>
+  <si>
+    <t>[76359, 206559, 326822, 458933, 586564]</t>
+  </si>
+  <si>
+    <t>[76485, 209257, 335304, 476474, 610195, 745289, 877885, 1011919, 1149914, 1285337]</t>
+  </si>
+  <si>
+    <t>[76055, 207735, 344024, 474202]</t>
+  </si>
+  <si>
+    <t>[76251, 202650]</t>
   </si>
   <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
+    <t>[0.0, 0.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 45.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 50.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 45.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 65.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 15.0]</t>
+  </si>
+  <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 15.0]</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 5.0]</t>
+    <t>[0.0, 0.0, 0.0, 5.0]</t>
   </si>
   <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 20.0]</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 25.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 15.0]</t>
-  </si>
-  <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 10.0]</t>
   </si>
   <si>
+    <t>[0.0, 0.0, 0.0, 40.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 90.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 55.00000000000001]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 60.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 65.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 15.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 65.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 5.0, 60.0, 65.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 65.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 20.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 25.0]</t>
+  </si>
+  <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 20.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 20.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 40.0, 20.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 65.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 25.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 30.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 60.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 50.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 85.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 60.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 50.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 25.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 35.0, 40.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 80.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 65.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 15.0, 55.00000000000001]</t>
+  </si>
+  <si>
+    <t>[0.0, 15.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 15.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 40.0, 55.00000000000001]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 10.0, 5.0]</t>
   </si>
 </sst>
 </file>
@@ -871,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -894,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -917,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1009,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1055,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1078,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1147,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1170,7 +1311,7 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1193,7 +1334,7 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1308,7 +1449,7 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1354,7 +1495,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1377,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,7 +1541,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1446,7 +1587,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1469,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1492,7 +1633,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1561,7 +1702,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1584,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1653,7 +1794,7 @@
         <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1676,7 +1817,7 @@
         <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1745,7 +1886,7 @@
         <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1768,7 +1909,7 @@
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1791,7 +1932,7 @@
         <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1814,7 +1955,7 @@
         <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1906,7 +2047,7 @@
         <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1929,7 +2070,7 @@
         <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1975,7 +2116,7 @@
         <v>57</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1998,7 +2139,7 @@
         <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2021,7 +2162,7 @@
         <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2090,7 +2231,7 @@
         <v>62</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2136,7 +2277,7 @@
         <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2159,7 +2300,7 @@
         <v>65</v>
       </c>
       <c r="G60" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2205,7 +2346,7 @@
         <v>67</v>
       </c>
       <c r="G62" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2228,7 +2369,7 @@
         <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2251,7 +2392,7 @@
         <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2274,7 +2415,7 @@
         <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2297,7 +2438,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2320,7 +2461,7 @@
         <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2343,7 +2484,7 @@
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2389,7 +2530,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2412,7 +2553,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2435,7 +2576,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2458,7 +2599,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2527,7 +2668,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2573,7 +2714,7 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2596,7 +2737,7 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2642,7 +2783,7 @@
         <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2665,7 +2806,7 @@
         <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2688,7 +2829,7 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2711,7 +2852,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2734,7 +2875,7 @@
         <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2757,7 +2898,7 @@
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2780,7 +2921,7 @@
         <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2803,7 +2944,7 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2849,7 +2990,7 @@
         <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2872,7 +3013,7 @@
         <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2895,7 +3036,7 @@
         <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2918,7 +3059,7 @@
         <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2941,7 +3082,7 @@
         <v>99</v>
       </c>
       <c r="G94" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2964,7 +3105,7 @@
         <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3033,7 +3174,7 @@
         <v>103</v>
       </c>
       <c r="G98" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3148,7 +3289,7 @@
         <v>108</v>
       </c>
       <c r="G103" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3194,7 +3335,7 @@
         <v>110</v>
       </c>
       <c r="G105" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3217,7 +3358,7 @@
         <v>111</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3240,7 +3381,7 @@
         <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3263,7 +3404,7 @@
         <v>113</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3286,7 +3427,7 @@
         <v>114</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3309,7 +3450,7 @@
         <v>115</v>
       </c>
       <c r="G110" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3332,7 +3473,7 @@
         <v>116</v>
       </c>
       <c r="G111" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3355,7 +3496,7 @@
         <v>117</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3378,7 +3519,7 @@
         <v>118</v>
       </c>
       <c r="G113" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3447,7 +3588,7 @@
         <v>121</v>
       </c>
       <c r="G116" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3493,7 +3634,7 @@
         <v>123</v>
       </c>
       <c r="G118" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3539,7 +3680,7 @@
         <v>125</v>
       </c>
       <c r="G120" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3562,7 +3703,7 @@
         <v>126</v>
       </c>
       <c r="G121" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
